--- a/Semana 1/Ej3_BI.xlsx
+++ b/Semana 1/Ej3_BI.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Variance" sheetId="1" r:id="rId4"/>
+    <sheet name="Variance" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi2XDWfNuuhyBkIg6l//G41hlf1zg=="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -18,82 +22,113 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Variance</t>
+    <t xml:space="preserve">Variance</t>
   </si>
   <si>
-    <t>Average income in the United States</t>
+    <t xml:space="preserve">Average income in the United States</t>
   </si>
   <si>
-    <t>Background</t>
+    <t xml:space="preserve">Background</t>
   </si>
   <si>
-    <t>You have the annual personal income of 11 people from the USA. You have the mean income from the exercise on mean, median and mode</t>
+    <t xml:space="preserve">You have the annual personal income of 11 people from the USA. You have the mean income from the exercise on mean, median and mode</t>
   </si>
   <si>
-    <t>Task 1</t>
+    <t xml:space="preserve">Task 1</t>
   </si>
   <si>
-    <t>Decide whether you have to use sample or population formula for the variance</t>
+    <t xml:space="preserve">Decide whether you have to use sample or population formula for the variance</t>
   </si>
   <si>
-    <t>Task 2</t>
+    <t xml:space="preserve">Task 2</t>
   </si>
   <si>
-    <t>Calculate the variance of their income</t>
+    <t xml:space="preserve">Calculate the variance of their income</t>
   </si>
   <si>
-    <t>Task 3</t>
+    <t xml:space="preserve">Task 3</t>
   </si>
   <si>
-    <t>Generally, what does this number tell you?</t>
+    <t xml:space="preserve">Generally, what does this number tell you?</t>
   </si>
   <si>
-    <t>Annual income</t>
+    <t xml:space="preserve">Annual income</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t xml:space="preserve">Mean</t>
   </si>
   <si>
-    <t>Variance:</t>
+    <t xml:space="preserve">Variance:</t>
   </si>
   <si>
-    <t>I used sample variance since although the question implies our entire dataset of annual incomes is 11, there are far more than 11 people with incomes in the USA making this dataset a sample.</t>
+    <t xml:space="preserve">I used sample variance since although the question implies our entire dataset of annual incomes is 11, there are far more than 11 people with incomes in the USA making this dataset a sample.</t>
   </si>
   <si>
-    <t>This variance value is high so we can infer that there's a big gap between the incomes. We can see that we have outliers with very high incomes that skew this variance towards it's higher value</t>
+    <t xml:space="preserve">This variance value is high so we can infer that there's a big gap between the incomes. We can see that we have outliers with very high incomes that skew this variance towards it's higher value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\²\ * #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$² &quot;* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
+      <b val="true"/>
+      <sz val="9"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,294 +136,221 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF002060"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF002060"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0563C1"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.0"/>
-    <col customWidth="1" min="2" max="2" width="14.71"/>
-    <col customWidth="1" min="3" max="3" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="7.57"/>
-    <col customWidth="1" min="5" max="5" width="13.14"/>
-    <col customWidth="1" min="6" max="6" width="18.0"/>
-    <col customWidth="1" min="7" max="7" width="12.71"/>
-    <col customWidth="1" min="8" max="8" width="9.0"/>
-    <col customWidth="1" min="9" max="9" width="18.29"/>
-    <col customWidth="1" min="10" max="26" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="0" width="8.7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1">
+    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -418,7 +380,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="11.25" customHeight="1">
+    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -448,7 +410,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="11.25" customHeight="1">
+    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -476,7 +438,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="11.25" customHeight="1">
+    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -508,7 +470,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" ht="11.25" customHeight="1">
+    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -540,7 +502,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="11.25" customHeight="1">
+    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -572,7 +534,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="11.25" customHeight="1">
+    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -604,7 +566,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="11.25" customHeight="1">
+    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -632,7 +594,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="11.25" customHeight="1">
+    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
@@ -660,7 +622,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="11.25" customHeight="1">
+    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -688,7 +650,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="11.25" customHeight="1">
+    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -697,8 +659,8 @@
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5">
-        <f>AVERAGE(B12:B22)</f>
+      <c r="E11" s="5" t="n">
+        <f aca="false">AVERAGE(B12:B22)</f>
         <v>189848.1818</v>
       </c>
       <c r="F11" s="1"/>
@@ -723,10 +685,10 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="11.25" customHeight="1">
+    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="5">
-        <v>62000.0</v>
+      <c r="B12" s="5" t="n">
+        <v>62000</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -753,20 +715,20 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="11.25" customHeight="1">
+    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="5">
-        <v>64000.0</v>
+      <c r="B13" s="5" t="n">
+        <v>64000</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="9">
-        <f>VAR(B12:B22)</f>
-        <v>133433409536</v>
+      <c r="E13" s="9" t="n">
+        <f aca="false">VAR(B12:B22)</f>
+        <v>133433409536.364</v>
       </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="1"/>
       <c r="H13" s="5"/>
       <c r="I13" s="1"/>
@@ -788,10 +750,10 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="11.25" customHeight="1">
+    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="5">
-        <v>49000.0</v>
+      <c r="B14" s="5" t="n">
+        <v>49000</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -799,7 +761,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -818,10 +780,10 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="11.25" customHeight="1">
+    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="B15" s="5">
-        <v>324000.0</v>
+      <c r="B15" s="5" t="n">
+        <v>324000</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -848,13 +810,13 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="11.25" customHeight="1">
+    <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="5">
-        <v>1264000.0</v>
+      <c r="B16" s="5" t="n">
+        <v>1264000</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1"/>
@@ -880,13 +842,13 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="11.25" customHeight="1">
+    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="5">
-        <v>54330.0</v>
+      <c r="B17" s="5" t="n">
+        <v>54330</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -910,13 +872,13 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="11.25" customHeight="1">
+    <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="5">
-        <v>64000.0</v>
+      <c r="B18" s="5" t="n">
+        <v>64000</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1"/>
@@ -942,10 +904,10 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="11.25" customHeight="1">
+    <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="5">
-        <v>51000.0</v>
+      <c r="B19" s="5" t="n">
+        <v>51000</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
@@ -972,10 +934,10 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="11.25" customHeight="1">
+    <row r="20" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
-      <c r="B20" s="5">
-        <v>55000.0</v>
+      <c r="B20" s="5" t="n">
+        <v>55000</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
@@ -1002,10 +964,10 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="11.25" customHeight="1">
+    <row r="21" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="5">
-        <v>48000.0</v>
+      <c r="B21" s="5" t="n">
+        <v>48000</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
@@ -1032,10 +994,10 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="11.25" customHeight="1">
+    <row r="22" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="14">
-        <v>53000.0</v>
+      <c r="B22" s="15" t="n">
+        <v>53000</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
@@ -1062,7 +1024,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="11.25" customHeight="1">
+    <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1090,7 +1052,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="11.25" customHeight="1">
+    <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1118,7 +1080,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="11.25" customHeight="1">
+    <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1146,7 +1108,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="11.25" customHeight="1">
+    <row r="26" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1174,7 +1136,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="11.25" customHeight="1">
+    <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1202,7 +1164,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="11.25" customHeight="1">
+    <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1230,7 +1192,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="11.25" customHeight="1">
+    <row r="29" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1258,7 +1220,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="11.25" customHeight="1">
+    <row r="30" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1286,7 +1248,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="11.25" customHeight="1">
+    <row r="31" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1314,7 +1276,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="11.25" customHeight="1">
+    <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1342,7 +1304,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" ht="11.25" customHeight="1">
+    <row r="33" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1370,7 +1332,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="11.25" customHeight="1">
+    <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1398,7 +1360,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="11.25" customHeight="1">
+    <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1426,7 +1388,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="11.25" customHeight="1">
+    <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1454,7 +1416,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" ht="11.25" customHeight="1">
+    <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1482,7 +1444,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" ht="11.25" customHeight="1">
+    <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1510,7 +1472,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="11.25" customHeight="1">
+    <row r="39" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1538,7 +1500,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" ht="11.25" customHeight="1">
+    <row r="40" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1566,7 +1528,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="11.25" customHeight="1">
+    <row r="41" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1594,7 +1556,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="11.25" customHeight="1">
+    <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1622,7 +1584,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="11.25" customHeight="1">
+    <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1650,7 +1612,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="11.25" customHeight="1">
+    <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1678,7 +1640,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="11.25" customHeight="1">
+    <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1706,7 +1668,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="11.25" customHeight="1">
+    <row r="46" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1734,7 +1696,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="11.25" customHeight="1">
+    <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1762,7 +1724,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="11.25" customHeight="1">
+    <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1790,7 +1752,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="11.25" customHeight="1">
+    <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1818,7 +1780,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="11.25" customHeight="1">
+    <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1846,7 +1808,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="11.25" customHeight="1">
+    <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1874,7 +1836,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="11.25" customHeight="1">
+    <row r="52" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1902,7 +1864,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="11.25" customHeight="1">
+    <row r="53" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1930,7 +1892,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="11.25" customHeight="1">
+    <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1958,7 +1920,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="11.25" customHeight="1">
+    <row r="55" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1986,7 +1948,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="11.25" customHeight="1">
+    <row r="56" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2014,7 +1976,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="11.25" customHeight="1">
+    <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2042,7 +2004,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="11.25" customHeight="1">
+    <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2070,7 +2032,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="11.25" customHeight="1">
+    <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2098,7 +2060,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="11.25" customHeight="1">
+    <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2126,7 +2088,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="11.25" customHeight="1">
+    <row r="61" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2154,7 +2116,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="11.25" customHeight="1">
+    <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2182,7 +2144,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="11.25" customHeight="1">
+    <row r="63" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2210,7 +2172,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="11.25" customHeight="1">
+    <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2238,7 +2200,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="11.25" customHeight="1">
+    <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2266,7 +2228,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="11.25" customHeight="1">
+    <row r="66" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2294,7 +2256,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="11.25" customHeight="1">
+    <row r="67" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2322,7 +2284,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="11.25" customHeight="1">
+    <row r="68" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2350,7 +2312,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="11.25" customHeight="1">
+    <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2378,7 +2340,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="11.25" customHeight="1">
+    <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2406,7 +2368,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="11.25" customHeight="1">
+    <row r="71" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2434,7 +2396,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="11.25" customHeight="1">
+    <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2462,7 +2424,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="11.25" customHeight="1">
+    <row r="73" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2490,7 +2452,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="11.25" customHeight="1">
+    <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2518,7 +2480,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="11.25" customHeight="1">
+    <row r="75" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2546,7 +2508,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="11.25" customHeight="1">
+    <row r="76" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2574,7 +2536,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="11.25" customHeight="1">
+    <row r="77" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2602,7 +2564,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="11.25" customHeight="1">
+    <row r="78" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2630,7 +2592,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="11.25" customHeight="1">
+    <row r="79" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2658,7 +2620,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="11.25" customHeight="1">
+    <row r="80" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2686,7 +2648,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="11.25" customHeight="1">
+    <row r="81" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2714,7 +2676,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="11.25" customHeight="1">
+    <row r="82" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2742,7 +2704,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="11.25" customHeight="1">
+    <row r="83" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2770,7 +2732,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="11.25" customHeight="1">
+    <row r="84" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2798,7 +2760,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="11.25" customHeight="1">
+    <row r="85" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2826,7 +2788,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="11.25" customHeight="1">
+    <row r="86" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2854,7 +2816,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="11.25" customHeight="1">
+    <row r="87" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2882,7 +2844,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="11.25" customHeight="1">
+    <row r="88" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2910,7 +2872,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="11.25" customHeight="1">
+    <row r="89" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2938,7 +2900,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="11.25" customHeight="1">
+    <row r="90" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2966,7 +2928,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="11.25" customHeight="1">
+    <row r="91" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2994,7 +2956,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="11.25" customHeight="1">
+    <row r="92" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3022,7 +2984,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="11.25" customHeight="1">
+    <row r="93" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3050,7 +3012,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="11.25" customHeight="1">
+    <row r="94" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3078,7 +3040,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="11.25" customHeight="1">
+    <row r="95" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3106,7 +3068,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="11.25" customHeight="1">
+    <row r="96" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3134,7 +3096,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="11.25" customHeight="1">
+    <row r="97" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3162,7 +3124,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="11.25" customHeight="1">
+    <row r="98" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3190,7 +3152,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="11.25" customHeight="1">
+    <row r="99" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3218,7 +3180,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="11.25" customHeight="1">
+    <row r="100" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3246,7 +3208,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="11.25" customHeight="1">
+    <row r="101" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3274,7 +3236,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="11.25" customHeight="1">
+    <row r="102" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3302,7 +3264,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="11.25" customHeight="1">
+    <row r="103" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3330,7 +3292,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="11.25" customHeight="1">
+    <row r="104" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3358,7 +3320,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="11.25" customHeight="1">
+    <row r="105" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3386,7 +3348,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="11.25" customHeight="1">
+    <row r="106" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3414,7 +3376,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="11.25" customHeight="1">
+    <row r="107" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3442,7 +3404,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="11.25" customHeight="1">
+    <row r="108" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3470,7 +3432,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="11.25" customHeight="1">
+    <row r="109" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3498,7 +3460,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="11.25" customHeight="1">
+    <row r="110" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3526,7 +3488,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="11.25" customHeight="1">
+    <row r="111" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3554,7 +3516,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="11.25" customHeight="1">
+    <row r="112" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3582,7 +3544,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="11.25" customHeight="1">
+    <row r="113" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3610,7 +3572,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="11.25" customHeight="1">
+    <row r="114" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3638,7 +3600,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="11.25" customHeight="1">
+    <row r="115" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3666,7 +3628,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="11.25" customHeight="1">
+    <row r="116" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3694,7 +3656,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="11.25" customHeight="1">
+    <row r="117" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3722,7 +3684,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="11.25" customHeight="1">
+    <row r="118" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3750,7 +3712,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="11.25" customHeight="1">
+    <row r="119" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3778,7 +3740,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="11.25" customHeight="1">
+    <row r="120" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3806,7 +3768,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="11.25" customHeight="1">
+    <row r="121" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3834,7 +3796,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="11.25" customHeight="1">
+    <row r="122" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3862,7 +3824,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="11.25" customHeight="1">
+    <row r="123" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3890,7 +3852,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="11.25" customHeight="1">
+    <row r="124" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3918,7 +3880,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="11.25" customHeight="1">
+    <row r="125" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3946,7 +3908,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="11.25" customHeight="1">
+    <row r="126" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3974,7 +3936,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="11.25" customHeight="1">
+    <row r="127" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4002,7 +3964,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="11.25" customHeight="1">
+    <row r="128" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4030,7 +3992,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="11.25" customHeight="1">
+    <row r="129" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4058,7 +4020,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="11.25" customHeight="1">
+    <row r="130" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4086,7 +4048,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="11.25" customHeight="1">
+    <row r="131" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4114,7 +4076,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="11.25" customHeight="1">
+    <row r="132" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4142,7 +4104,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="11.25" customHeight="1">
+    <row r="133" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4170,7 +4132,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="11.25" customHeight="1">
+    <row r="134" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4198,7 +4160,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="11.25" customHeight="1">
+    <row r="135" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4226,7 +4188,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="11.25" customHeight="1">
+    <row r="136" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4254,7 +4216,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="11.25" customHeight="1">
+    <row r="137" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4282,7 +4244,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="11.25" customHeight="1">
+    <row r="138" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4310,7 +4272,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="11.25" customHeight="1">
+    <row r="139" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4338,7 +4300,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="11.25" customHeight="1">
+    <row r="140" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4366,7 +4328,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="11.25" customHeight="1">
+    <row r="141" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4394,7 +4356,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="11.25" customHeight="1">
+    <row r="142" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4422,7 +4384,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="11.25" customHeight="1">
+    <row r="143" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4450,7 +4412,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="11.25" customHeight="1">
+    <row r="144" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4478,7 +4440,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="11.25" customHeight="1">
+    <row r="145" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4506,7 +4468,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="11.25" customHeight="1">
+    <row r="146" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4534,7 +4496,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="11.25" customHeight="1">
+    <row r="147" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4562,7 +4524,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="11.25" customHeight="1">
+    <row r="148" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4590,7 +4552,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="11.25" customHeight="1">
+    <row r="149" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4618,7 +4580,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="11.25" customHeight="1">
+    <row r="150" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4646,7 +4608,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="11.25" customHeight="1">
+    <row r="151" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4674,7 +4636,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="11.25" customHeight="1">
+    <row r="152" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4702,7 +4664,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="11.25" customHeight="1">
+    <row r="153" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4730,7 +4692,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="11.25" customHeight="1">
+    <row r="154" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4758,7 +4720,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="11.25" customHeight="1">
+    <row r="155" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4786,7 +4748,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="11.25" customHeight="1">
+    <row r="156" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4814,7 +4776,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="11.25" customHeight="1">
+    <row r="157" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4842,7 +4804,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="11.25" customHeight="1">
+    <row r="158" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4870,7 +4832,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="11.25" customHeight="1">
+    <row r="159" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4898,7 +4860,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="11.25" customHeight="1">
+    <row r="160" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4926,7 +4888,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="11.25" customHeight="1">
+    <row r="161" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4954,7 +4916,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="11.25" customHeight="1">
+    <row r="162" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4982,7 +4944,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="11.25" customHeight="1">
+    <row r="163" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5010,7 +4972,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="11.25" customHeight="1">
+    <row r="164" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5038,7 +5000,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="11.25" customHeight="1">
+    <row r="165" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5066,7 +5028,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="11.25" customHeight="1">
+    <row r="166" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5094,7 +5056,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="11.25" customHeight="1">
+    <row r="167" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5122,7 +5084,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="11.25" customHeight="1">
+    <row r="168" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5150,7 +5112,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="11.25" customHeight="1">
+    <row r="169" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5178,7 +5140,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="11.25" customHeight="1">
+    <row r="170" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5206,7 +5168,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="11.25" customHeight="1">
+    <row r="171" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5234,7 +5196,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="11.25" customHeight="1">
+    <row r="172" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5262,7 +5224,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="11.25" customHeight="1">
+    <row r="173" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5290,7 +5252,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="11.25" customHeight="1">
+    <row r="174" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5318,7 +5280,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="11.25" customHeight="1">
+    <row r="175" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5346,7 +5308,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="11.25" customHeight="1">
+    <row r="176" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5374,7 +5336,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="11.25" customHeight="1">
+    <row r="177" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5402,7 +5364,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="11.25" customHeight="1">
+    <row r="178" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5430,7 +5392,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="11.25" customHeight="1">
+    <row r="179" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5458,7 +5420,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="11.25" customHeight="1">
+    <row r="180" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5486,7 +5448,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="11.25" customHeight="1">
+    <row r="181" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5514,7 +5476,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="11.25" customHeight="1">
+    <row r="182" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5542,7 +5504,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="11.25" customHeight="1">
+    <row r="183" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5570,7 +5532,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="11.25" customHeight="1">
+    <row r="184" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5598,7 +5560,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="11.25" customHeight="1">
+    <row r="185" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5626,7 +5588,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="11.25" customHeight="1">
+    <row r="186" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5654,7 +5616,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="11.25" customHeight="1">
+    <row r="187" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5682,7 +5644,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="11.25" customHeight="1">
+    <row r="188" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5710,7 +5672,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="11.25" customHeight="1">
+    <row r="189" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5738,7 +5700,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="11.25" customHeight="1">
+    <row r="190" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5766,7 +5728,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="11.25" customHeight="1">
+    <row r="191" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5794,7 +5756,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="11.25" customHeight="1">
+    <row r="192" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5822,7 +5784,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="11.25" customHeight="1">
+    <row r="193" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5850,7 +5812,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="11.25" customHeight="1">
+    <row r="194" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5878,7 +5840,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="11.25" customHeight="1">
+    <row r="195" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5906,7 +5868,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="11.25" customHeight="1">
+    <row r="196" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5934,7 +5896,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="11.25" customHeight="1">
+    <row r="197" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5962,7 +5924,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="11.25" customHeight="1">
+    <row r="198" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5990,7 +5952,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="11.25" customHeight="1">
+    <row r="199" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6018,7 +5980,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="11.25" customHeight="1">
+    <row r="200" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6046,7 +6008,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="11.25" customHeight="1">
+    <row r="201" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6074,7 +6036,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="11.25" customHeight="1">
+    <row r="202" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6102,7 +6064,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="11.25" customHeight="1">
+    <row r="203" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6130,7 +6092,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="11.25" customHeight="1">
+    <row r="204" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6158,7 +6120,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="11.25" customHeight="1">
+    <row r="205" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6186,7 +6148,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="11.25" customHeight="1">
+    <row r="206" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6214,7 +6176,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="11.25" customHeight="1">
+    <row r="207" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6242,7 +6204,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="11.25" customHeight="1">
+    <row r="208" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6270,7 +6232,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="11.25" customHeight="1">
+    <row r="209" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6298,7 +6260,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="11.25" customHeight="1">
+    <row r="210" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6326,7 +6288,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="11.25" customHeight="1">
+    <row r="211" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6354,7 +6316,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="11.25" customHeight="1">
+    <row r="212" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6382,7 +6344,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="11.25" customHeight="1">
+    <row r="213" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6410,7 +6372,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="11.25" customHeight="1">
+    <row r="214" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6438,7 +6400,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="11.25" customHeight="1">
+    <row r="215" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6466,7 +6428,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="11.25" customHeight="1">
+    <row r="216" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6494,7 +6456,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" ht="11.25" customHeight="1">
+    <row r="217" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6522,7 +6484,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" ht="11.25" customHeight="1">
+    <row r="218" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6550,7 +6512,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="11.25" customHeight="1">
+    <row r="219" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6578,7 +6540,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="11.25" customHeight="1">
+    <row r="220" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6606,7 +6568,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" ht="11.25" customHeight="1">
+    <row r="221" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6634,7 +6596,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" ht="11.25" customHeight="1">
+    <row r="222" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6662,7 +6624,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" ht="11.25" customHeight="1">
+    <row r="223" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6690,7 +6652,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" ht="11.25" customHeight="1">
+    <row r="224" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6718,7 +6680,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" ht="11.25" customHeight="1">
+    <row r="225" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6746,7 +6708,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" ht="11.25" customHeight="1">
+    <row r="226" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6774,7 +6736,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" ht="11.25" customHeight="1">
+    <row r="227" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6802,7 +6764,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" ht="11.25" customHeight="1">
+    <row r="228" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6830,7 +6792,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" ht="11.25" customHeight="1">
+    <row r="229" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6858,7 +6820,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" ht="11.25" customHeight="1">
+    <row r="230" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6886,7 +6848,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" ht="11.25" customHeight="1">
+    <row r="231" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6914,7 +6876,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" ht="11.25" customHeight="1">
+    <row r="232" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6942,7 +6904,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" ht="11.25" customHeight="1">
+    <row r="233" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6970,7 +6932,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" ht="11.25" customHeight="1">
+    <row r="234" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6998,7 +6960,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" ht="11.25" customHeight="1">
+    <row r="235" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7026,7 +6988,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" ht="11.25" customHeight="1">
+    <row r="236" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7054,7 +7016,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" ht="11.25" customHeight="1">
+    <row r="237" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7082,7 +7044,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" ht="11.25" customHeight="1">
+    <row r="238" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7110,7 +7072,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" ht="11.25" customHeight="1">
+    <row r="239" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7138,7 +7100,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" ht="11.25" customHeight="1">
+    <row r="240" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7166,7 +7128,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" ht="11.25" customHeight="1">
+    <row r="241" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7194,7 +7156,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" ht="11.25" customHeight="1">
+    <row r="242" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7222,7 +7184,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" ht="11.25" customHeight="1">
+    <row r="243" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7250,7 +7212,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" ht="11.25" customHeight="1">
+    <row r="244" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7278,7 +7240,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" ht="11.25" customHeight="1">
+    <row r="245" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7306,7 +7268,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" ht="11.25" customHeight="1">
+    <row r="246" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7334,7 +7296,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" ht="11.25" customHeight="1">
+    <row r="247" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7362,7 +7324,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" ht="11.25" customHeight="1">
+    <row r="248" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7390,7 +7352,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" ht="11.25" customHeight="1">
+    <row r="249" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7418,7 +7380,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" ht="11.25" customHeight="1">
+    <row r="250" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7446,7 +7408,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" ht="11.25" customHeight="1">
+    <row r="251" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7474,7 +7436,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" ht="11.25" customHeight="1">
+    <row r="252" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7502,7 +7464,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" ht="11.25" customHeight="1">
+    <row r="253" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7530,7 +7492,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" ht="11.25" customHeight="1">
+    <row r="254" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7558,7 +7520,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" ht="11.25" customHeight="1">
+    <row r="255" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7586,7 +7548,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" ht="11.25" customHeight="1">
+    <row r="256" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7614,7 +7576,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" ht="11.25" customHeight="1">
+    <row r="257" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7642,7 +7604,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" ht="11.25" customHeight="1">
+    <row r="258" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7670,7 +7632,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" ht="11.25" customHeight="1">
+    <row r="259" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7698,7 +7660,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" ht="11.25" customHeight="1">
+    <row r="260" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7726,7 +7688,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" ht="11.25" customHeight="1">
+    <row r="261" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7754,7 +7716,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" ht="11.25" customHeight="1">
+    <row r="262" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7782,7 +7744,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" ht="11.25" customHeight="1">
+    <row r="263" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7810,7 +7772,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" ht="11.25" customHeight="1">
+    <row r="264" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7838,7 +7800,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" ht="11.25" customHeight="1">
+    <row r="265" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7866,7 +7828,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" ht="11.25" customHeight="1">
+    <row r="266" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7894,7 +7856,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" ht="11.25" customHeight="1">
+    <row r="267" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7922,7 +7884,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" ht="11.25" customHeight="1">
+    <row r="268" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7950,7 +7912,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" ht="11.25" customHeight="1">
+    <row r="269" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7978,7 +7940,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" ht="11.25" customHeight="1">
+    <row r="270" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8006,7 +7968,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" ht="11.25" customHeight="1">
+    <row r="271" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8034,7 +7996,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" ht="11.25" customHeight="1">
+    <row r="272" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8062,7 +8024,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" ht="11.25" customHeight="1">
+    <row r="273" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8090,7 +8052,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" ht="11.25" customHeight="1">
+    <row r="274" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8118,7 +8080,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" ht="11.25" customHeight="1">
+    <row r="275" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8146,7 +8108,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" ht="11.25" customHeight="1">
+    <row r="276" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8174,7 +8136,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" ht="11.25" customHeight="1">
+    <row r="277" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8202,7 +8164,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" ht="11.25" customHeight="1">
+    <row r="278" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8230,7 +8192,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" ht="11.25" customHeight="1">
+    <row r="279" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8258,7 +8220,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" ht="11.25" customHeight="1">
+    <row r="280" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8286,7 +8248,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" ht="11.25" customHeight="1">
+    <row r="281" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8314,7 +8276,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" ht="11.25" customHeight="1">
+    <row r="282" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8342,7 +8304,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" ht="11.25" customHeight="1">
+    <row r="283" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8370,7 +8332,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" ht="11.25" customHeight="1">
+    <row r="284" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8398,7 +8360,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" ht="11.25" customHeight="1">
+    <row r="285" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8426,7 +8388,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" ht="11.25" customHeight="1">
+    <row r="286" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8454,7 +8416,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" ht="11.25" customHeight="1">
+    <row r="287" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8482,7 +8444,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" ht="11.25" customHeight="1">
+    <row r="288" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8510,7 +8472,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" ht="11.25" customHeight="1">
+    <row r="289" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8538,7 +8500,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" ht="11.25" customHeight="1">
+    <row r="290" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8566,7 +8528,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" ht="11.25" customHeight="1">
+    <row r="291" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8594,7 +8556,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" ht="11.25" customHeight="1">
+    <row r="292" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8622,7 +8584,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" ht="11.25" customHeight="1">
+    <row r="293" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8650,7 +8612,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" ht="11.25" customHeight="1">
+    <row r="294" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8678,7 +8640,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" ht="11.25" customHeight="1">
+    <row r="295" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8706,7 +8668,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" ht="11.25" customHeight="1">
+    <row r="296" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8734,7 +8696,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" ht="11.25" customHeight="1">
+    <row r="297" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8762,7 +8724,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" ht="11.25" customHeight="1">
+    <row r="298" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8790,7 +8752,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" ht="11.25" customHeight="1">
+    <row r="299" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8818,7 +8780,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" ht="11.25" customHeight="1">
+    <row r="300" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8846,7 +8808,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" ht="11.25" customHeight="1">
+    <row r="301" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8874,7 +8836,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" ht="11.25" customHeight="1">
+    <row r="302" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8902,7 +8864,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" ht="11.25" customHeight="1">
+    <row r="303" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8930,7 +8892,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" ht="11.25" customHeight="1">
+    <row r="304" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8958,7 +8920,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" ht="11.25" customHeight="1">
+    <row r="305" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8986,7 +8948,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" ht="11.25" customHeight="1">
+    <row r="306" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9014,7 +8976,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" ht="11.25" customHeight="1">
+    <row r="307" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9042,7 +9004,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" ht="11.25" customHeight="1">
+    <row r="308" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9070,7 +9032,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" ht="11.25" customHeight="1">
+    <row r="309" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9098,7 +9060,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" ht="11.25" customHeight="1">
+    <row r="310" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9126,7 +9088,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" ht="11.25" customHeight="1">
+    <row r="311" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9154,7 +9116,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" ht="11.25" customHeight="1">
+    <row r="312" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9182,7 +9144,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" ht="11.25" customHeight="1">
+    <row r="313" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9210,7 +9172,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" ht="11.25" customHeight="1">
+    <row r="314" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9238,7 +9200,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" ht="11.25" customHeight="1">
+    <row r="315" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9266,7 +9228,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" ht="11.25" customHeight="1">
+    <row r="316" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9294,7 +9256,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" ht="11.25" customHeight="1">
+    <row r="317" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9322,7 +9284,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" ht="11.25" customHeight="1">
+    <row r="318" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9350,7 +9312,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" ht="11.25" customHeight="1">
+    <row r="319" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9378,7 +9340,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" ht="11.25" customHeight="1">
+    <row r="320" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9406,7 +9368,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" ht="11.25" customHeight="1">
+    <row r="321" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9434,7 +9396,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" ht="11.25" customHeight="1">
+    <row r="322" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9462,7 +9424,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" ht="11.25" customHeight="1">
+    <row r="323" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9490,7 +9452,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" ht="11.25" customHeight="1">
+    <row r="324" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9518,7 +9480,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" ht="11.25" customHeight="1">
+    <row r="325" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9546,7 +9508,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" ht="11.25" customHeight="1">
+    <row r="326" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9574,7 +9536,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" ht="11.25" customHeight="1">
+    <row r="327" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9602,7 +9564,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" ht="11.25" customHeight="1">
+    <row r="328" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9630,7 +9592,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" ht="11.25" customHeight="1">
+    <row r="329" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9658,7 +9620,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" ht="11.25" customHeight="1">
+    <row r="330" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9686,7 +9648,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" ht="11.25" customHeight="1">
+    <row r="331" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9714,7 +9676,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" ht="11.25" customHeight="1">
+    <row r="332" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9742,7 +9704,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" ht="11.25" customHeight="1">
+    <row r="333" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9770,7 +9732,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" ht="11.25" customHeight="1">
+    <row r="334" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9798,7 +9760,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" ht="11.25" customHeight="1">
+    <row r="335" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9826,7 +9788,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" ht="11.25" customHeight="1">
+    <row r="336" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9854,7 +9816,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" ht="11.25" customHeight="1">
+    <row r="337" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9882,7 +9844,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" ht="11.25" customHeight="1">
+    <row r="338" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9910,7 +9872,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" ht="11.25" customHeight="1">
+    <row r="339" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9938,7 +9900,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" ht="11.25" customHeight="1">
+    <row r="340" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9966,7 +9928,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" ht="11.25" customHeight="1">
+    <row r="341" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9994,7 +9956,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" ht="11.25" customHeight="1">
+    <row r="342" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10022,7 +9984,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" ht="11.25" customHeight="1">
+    <row r="343" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10050,7 +10012,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" ht="11.25" customHeight="1">
+    <row r="344" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10078,7 +10040,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" ht="11.25" customHeight="1">
+    <row r="345" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10106,7 +10068,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" ht="11.25" customHeight="1">
+    <row r="346" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10134,7 +10096,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" ht="11.25" customHeight="1">
+    <row r="347" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10162,7 +10124,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" ht="11.25" customHeight="1">
+    <row r="348" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10190,7 +10152,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" ht="11.25" customHeight="1">
+    <row r="349" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10218,7 +10180,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" ht="11.25" customHeight="1">
+    <row r="350" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10246,7 +10208,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" ht="11.25" customHeight="1">
+    <row r="351" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10274,7 +10236,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" ht="11.25" customHeight="1">
+    <row r="352" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10302,7 +10264,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" ht="11.25" customHeight="1">
+    <row r="353" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10330,7 +10292,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" ht="11.25" customHeight="1">
+    <row r="354" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10358,7 +10320,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" ht="11.25" customHeight="1">
+    <row r="355" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10386,7 +10348,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" ht="11.25" customHeight="1">
+    <row r="356" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10414,7 +10376,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" ht="11.25" customHeight="1">
+    <row r="357" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10442,7 +10404,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" ht="11.25" customHeight="1">
+    <row r="358" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10470,7 +10432,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" ht="11.25" customHeight="1">
+    <row r="359" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10498,7 +10460,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" ht="11.25" customHeight="1">
+    <row r="360" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10526,7 +10488,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" ht="11.25" customHeight="1">
+    <row r="361" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10554,7 +10516,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" ht="11.25" customHeight="1">
+    <row r="362" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10582,7 +10544,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" ht="11.25" customHeight="1">
+    <row r="363" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10610,7 +10572,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" ht="11.25" customHeight="1">
+    <row r="364" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10638,7 +10600,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" ht="11.25" customHeight="1">
+    <row r="365" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10666,7 +10628,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" ht="11.25" customHeight="1">
+    <row r="366" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10694,7 +10656,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" ht="11.25" customHeight="1">
+    <row r="367" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10722,7 +10684,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" ht="11.25" customHeight="1">
+    <row r="368" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10750,7 +10712,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" ht="11.25" customHeight="1">
+    <row r="369" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10778,7 +10740,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" ht="11.25" customHeight="1">
+    <row r="370" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10806,7 +10768,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" ht="11.25" customHeight="1">
+    <row r="371" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10834,7 +10796,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" ht="11.25" customHeight="1">
+    <row r="372" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10862,7 +10824,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" ht="11.25" customHeight="1">
+    <row r="373" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10890,7 +10852,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" ht="11.25" customHeight="1">
+    <row r="374" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10918,7 +10880,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" ht="11.25" customHeight="1">
+    <row r="375" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10946,7 +10908,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" ht="11.25" customHeight="1">
+    <row r="376" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10974,7 +10936,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" ht="11.25" customHeight="1">
+    <row r="377" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11002,7 +10964,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" ht="11.25" customHeight="1">
+    <row r="378" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11030,7 +10992,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" ht="11.25" customHeight="1">
+    <row r="379" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11058,7 +11020,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" ht="11.25" customHeight="1">
+    <row r="380" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11086,7 +11048,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" ht="11.25" customHeight="1">
+    <row r="381" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11114,7 +11076,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" ht="11.25" customHeight="1">
+    <row r="382" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11142,7 +11104,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" ht="11.25" customHeight="1">
+    <row r="383" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11170,7 +11132,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" ht="11.25" customHeight="1">
+    <row r="384" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11198,7 +11160,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" ht="11.25" customHeight="1">
+    <row r="385" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11226,7 +11188,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" ht="11.25" customHeight="1">
+    <row r="386" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11254,7 +11216,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" ht="11.25" customHeight="1">
+    <row r="387" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11282,7 +11244,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" ht="11.25" customHeight="1">
+    <row r="388" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11310,7 +11272,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" ht="11.25" customHeight="1">
+    <row r="389" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11338,7 +11300,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" ht="11.25" customHeight="1">
+    <row r="390" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11366,7 +11328,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" ht="11.25" customHeight="1">
+    <row r="391" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11394,7 +11356,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" ht="11.25" customHeight="1">
+    <row r="392" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11422,7 +11384,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" ht="11.25" customHeight="1">
+    <row r="393" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11450,7 +11412,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" ht="11.25" customHeight="1">
+    <row r="394" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11478,7 +11440,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" ht="11.25" customHeight="1">
+    <row r="395" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11506,7 +11468,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" ht="11.25" customHeight="1">
+    <row r="396" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11534,7 +11496,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" ht="11.25" customHeight="1">
+    <row r="397" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11562,7 +11524,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" ht="11.25" customHeight="1">
+    <row r="398" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11590,7 +11552,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" ht="11.25" customHeight="1">
+    <row r="399" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11618,7 +11580,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" ht="11.25" customHeight="1">
+    <row r="400" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11646,7 +11608,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" ht="11.25" customHeight="1">
+    <row r="401" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11674,7 +11636,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" ht="11.25" customHeight="1">
+    <row r="402" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11702,7 +11664,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" ht="11.25" customHeight="1">
+    <row r="403" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11730,7 +11692,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" ht="11.25" customHeight="1">
+    <row r="404" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11758,7 +11720,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" ht="11.25" customHeight="1">
+    <row r="405" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11786,7 +11748,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" ht="11.25" customHeight="1">
+    <row r="406" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11814,7 +11776,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" ht="11.25" customHeight="1">
+    <row r="407" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11842,7 +11804,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" ht="11.25" customHeight="1">
+    <row r="408" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11870,7 +11832,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" ht="11.25" customHeight="1">
+    <row r="409" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11898,7 +11860,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" ht="11.25" customHeight="1">
+    <row r="410" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11926,7 +11888,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" ht="11.25" customHeight="1">
+    <row r="411" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11954,7 +11916,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" ht="11.25" customHeight="1">
+    <row r="412" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11982,7 +11944,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" ht="11.25" customHeight="1">
+    <row r="413" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12010,7 +11972,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" ht="11.25" customHeight="1">
+    <row r="414" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12038,7 +12000,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" ht="11.25" customHeight="1">
+    <row r="415" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12066,7 +12028,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" ht="11.25" customHeight="1">
+    <row r="416" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12094,7 +12056,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" ht="11.25" customHeight="1">
+    <row r="417" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12122,7 +12084,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" ht="11.25" customHeight="1">
+    <row r="418" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12150,7 +12112,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" ht="11.25" customHeight="1">
+    <row r="419" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12178,7 +12140,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" ht="11.25" customHeight="1">
+    <row r="420" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12206,7 +12168,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" ht="11.25" customHeight="1">
+    <row r="421" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12234,7 +12196,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" ht="11.25" customHeight="1">
+    <row r="422" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12262,7 +12224,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" ht="11.25" customHeight="1">
+    <row r="423" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12290,7 +12252,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" ht="11.25" customHeight="1">
+    <row r="424" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12318,7 +12280,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" ht="11.25" customHeight="1">
+    <row r="425" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12346,7 +12308,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" ht="11.25" customHeight="1">
+    <row r="426" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12374,7 +12336,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" ht="11.25" customHeight="1">
+    <row r="427" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12402,7 +12364,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" ht="11.25" customHeight="1">
+    <row r="428" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12430,7 +12392,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" ht="11.25" customHeight="1">
+    <row r="429" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12458,7 +12420,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" ht="11.25" customHeight="1">
+    <row r="430" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12486,7 +12448,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" ht="11.25" customHeight="1">
+    <row r="431" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12514,7 +12476,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" ht="11.25" customHeight="1">
+    <row r="432" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12542,7 +12504,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" ht="11.25" customHeight="1">
+    <row r="433" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12570,7 +12532,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" ht="11.25" customHeight="1">
+    <row r="434" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12598,7 +12560,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" ht="11.25" customHeight="1">
+    <row r="435" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12626,7 +12588,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" ht="11.25" customHeight="1">
+    <row r="436" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12654,7 +12616,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" ht="11.25" customHeight="1">
+    <row r="437" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12682,7 +12644,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" ht="11.25" customHeight="1">
+    <row r="438" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12710,7 +12672,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" ht="11.25" customHeight="1">
+    <row r="439" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12738,7 +12700,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" ht="11.25" customHeight="1">
+    <row r="440" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12766,7 +12728,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" ht="11.25" customHeight="1">
+    <row r="441" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12794,7 +12756,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" ht="11.25" customHeight="1">
+    <row r="442" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12822,7 +12784,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" ht="11.25" customHeight="1">
+    <row r="443" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12850,7 +12812,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" ht="11.25" customHeight="1">
+    <row r="444" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12878,7 +12840,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" ht="11.25" customHeight="1">
+    <row r="445" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12906,7 +12868,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" ht="11.25" customHeight="1">
+    <row r="446" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12934,7 +12896,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" ht="11.25" customHeight="1">
+    <row r="447" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12962,7 +12924,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" ht="11.25" customHeight="1">
+    <row r="448" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12990,7 +12952,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" ht="11.25" customHeight="1">
+    <row r="449" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13018,7 +12980,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" ht="11.25" customHeight="1">
+    <row r="450" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13046,7 +13008,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" ht="11.25" customHeight="1">
+    <row r="451" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13074,7 +13036,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" ht="11.25" customHeight="1">
+    <row r="452" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13102,7 +13064,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" ht="11.25" customHeight="1">
+    <row r="453" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13130,7 +13092,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" ht="11.25" customHeight="1">
+    <row r="454" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13158,7 +13120,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" ht="11.25" customHeight="1">
+    <row r="455" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13186,7 +13148,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" ht="11.25" customHeight="1">
+    <row r="456" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13214,7 +13176,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" ht="11.25" customHeight="1">
+    <row r="457" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13242,7 +13204,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" ht="11.25" customHeight="1">
+    <row r="458" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13270,7 +13232,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" ht="11.25" customHeight="1">
+    <row r="459" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13298,7 +13260,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" ht="11.25" customHeight="1">
+    <row r="460" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13326,7 +13288,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" ht="11.25" customHeight="1">
+    <row r="461" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13354,7 +13316,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" ht="11.25" customHeight="1">
+    <row r="462" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13382,7 +13344,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" ht="11.25" customHeight="1">
+    <row r="463" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13410,7 +13372,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" ht="11.25" customHeight="1">
+    <row r="464" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13438,7 +13400,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" ht="11.25" customHeight="1">
+    <row r="465" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13466,7 +13428,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" ht="11.25" customHeight="1">
+    <row r="466" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13494,7 +13456,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" ht="11.25" customHeight="1">
+    <row r="467" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13522,7 +13484,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" ht="11.25" customHeight="1">
+    <row r="468" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13550,7 +13512,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" ht="11.25" customHeight="1">
+    <row r="469" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13578,7 +13540,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" ht="11.25" customHeight="1">
+    <row r="470" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13606,7 +13568,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" ht="11.25" customHeight="1">
+    <row r="471" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13634,7 +13596,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" ht="11.25" customHeight="1">
+    <row r="472" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13662,7 +13624,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" ht="11.25" customHeight="1">
+    <row r="473" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13690,7 +13652,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" ht="11.25" customHeight="1">
+    <row r="474" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13718,7 +13680,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" ht="11.25" customHeight="1">
+    <row r="475" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13746,7 +13708,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" ht="11.25" customHeight="1">
+    <row r="476" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13774,7 +13736,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" ht="11.25" customHeight="1">
+    <row r="477" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13802,7 +13764,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" ht="11.25" customHeight="1">
+    <row r="478" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13830,7 +13792,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" ht="11.25" customHeight="1">
+    <row r="479" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13858,7 +13820,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" ht="11.25" customHeight="1">
+    <row r="480" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13886,7 +13848,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" ht="11.25" customHeight="1">
+    <row r="481" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13914,7 +13876,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" ht="11.25" customHeight="1">
+    <row r="482" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13942,7 +13904,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" ht="11.25" customHeight="1">
+    <row r="483" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13970,7 +13932,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" ht="11.25" customHeight="1">
+    <row r="484" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13998,7 +13960,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" ht="11.25" customHeight="1">
+    <row r="485" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14026,7 +13988,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" ht="11.25" customHeight="1">
+    <row r="486" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14054,7 +14016,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" ht="11.25" customHeight="1">
+    <row r="487" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14082,7 +14044,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" ht="11.25" customHeight="1">
+    <row r="488" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14110,7 +14072,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" ht="11.25" customHeight="1">
+    <row r="489" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14138,7 +14100,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" ht="11.25" customHeight="1">
+    <row r="490" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14166,7 +14128,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" ht="11.25" customHeight="1">
+    <row r="491" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14194,7 +14156,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" ht="11.25" customHeight="1">
+    <row r="492" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14222,7 +14184,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" ht="11.25" customHeight="1">
+    <row r="493" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14250,7 +14212,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" ht="11.25" customHeight="1">
+    <row r="494" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14278,7 +14240,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" ht="11.25" customHeight="1">
+    <row r="495" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14306,7 +14268,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" ht="11.25" customHeight="1">
+    <row r="496" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14334,7 +14296,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" ht="11.25" customHeight="1">
+    <row r="497" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14362,7 +14324,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" ht="11.25" customHeight="1">
+    <row r="498" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14390,7 +14352,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" ht="11.25" customHeight="1">
+    <row r="499" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14418,7 +14380,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" ht="11.25" customHeight="1">
+    <row r="500" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14446,7 +14408,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" ht="11.25" customHeight="1">
+    <row r="501" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14474,7 +14436,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" ht="11.25" customHeight="1">
+    <row r="502" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14502,7 +14464,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" ht="11.25" customHeight="1">
+    <row r="503" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14530,7 +14492,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" ht="11.25" customHeight="1">
+    <row r="504" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14558,7 +14520,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" ht="11.25" customHeight="1">
+    <row r="505" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14586,7 +14548,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" ht="11.25" customHeight="1">
+    <row r="506" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14614,7 +14576,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" ht="11.25" customHeight="1">
+    <row r="507" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14642,7 +14604,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" ht="11.25" customHeight="1">
+    <row r="508" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14670,7 +14632,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" ht="11.25" customHeight="1">
+    <row r="509" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14698,7 +14660,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" ht="11.25" customHeight="1">
+    <row r="510" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14726,7 +14688,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" ht="11.25" customHeight="1">
+    <row r="511" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14754,7 +14716,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" ht="11.25" customHeight="1">
+    <row r="512" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14782,7 +14744,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" ht="11.25" customHeight="1">
+    <row r="513" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14810,7 +14772,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" ht="11.25" customHeight="1">
+    <row r="514" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14838,7 +14800,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" ht="11.25" customHeight="1">
+    <row r="515" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14866,7 +14828,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" ht="11.25" customHeight="1">
+    <row r="516" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14894,7 +14856,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" ht="11.25" customHeight="1">
+    <row r="517" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14922,7 +14884,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" ht="11.25" customHeight="1">
+    <row r="518" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14950,7 +14912,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" ht="11.25" customHeight="1">
+    <row r="519" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14978,7 +14940,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" ht="11.25" customHeight="1">
+    <row r="520" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15006,7 +14968,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" ht="11.25" customHeight="1">
+    <row r="521" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15034,7 +14996,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" ht="11.25" customHeight="1">
+    <row r="522" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15062,7 +15024,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" ht="11.25" customHeight="1">
+    <row r="523" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15090,7 +15052,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" ht="11.25" customHeight="1">
+    <row r="524" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15118,7 +15080,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" ht="11.25" customHeight="1">
+    <row r="525" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15146,7 +15108,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" ht="11.25" customHeight="1">
+    <row r="526" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15174,7 +15136,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" ht="11.25" customHeight="1">
+    <row r="527" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15202,7 +15164,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" ht="11.25" customHeight="1">
+    <row r="528" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15230,7 +15192,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" ht="11.25" customHeight="1">
+    <row r="529" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15258,7 +15220,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" ht="11.25" customHeight="1">
+    <row r="530" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15286,7 +15248,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" ht="11.25" customHeight="1">
+    <row r="531" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15314,7 +15276,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" ht="11.25" customHeight="1">
+    <row r="532" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15342,7 +15304,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" ht="11.25" customHeight="1">
+    <row r="533" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -15370,7 +15332,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" ht="11.25" customHeight="1">
+    <row r="534" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -15398,7 +15360,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" ht="11.25" customHeight="1">
+    <row r="535" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -15426,7 +15388,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" ht="11.25" customHeight="1">
+    <row r="536" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -15454,7 +15416,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" ht="11.25" customHeight="1">
+    <row r="537" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -15482,7 +15444,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" ht="11.25" customHeight="1">
+    <row r="538" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15510,7 +15472,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" ht="11.25" customHeight="1">
+    <row r="539" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15538,7 +15500,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" ht="11.25" customHeight="1">
+    <row r="540" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15566,7 +15528,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" ht="11.25" customHeight="1">
+    <row r="541" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15594,7 +15556,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" ht="11.25" customHeight="1">
+    <row r="542" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15622,7 +15584,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" ht="11.25" customHeight="1">
+    <row r="543" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15650,7 +15612,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" ht="11.25" customHeight="1">
+    <row r="544" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15678,7 +15640,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" ht="11.25" customHeight="1">
+    <row r="545" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15706,7 +15668,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" ht="11.25" customHeight="1">
+    <row r="546" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15734,7 +15696,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" ht="11.25" customHeight="1">
+    <row r="547" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15762,7 +15724,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" ht="11.25" customHeight="1">
+    <row r="548" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15790,7 +15752,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" ht="11.25" customHeight="1">
+    <row r="549" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15818,7 +15780,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" ht="11.25" customHeight="1">
+    <row r="550" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15846,7 +15808,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" ht="11.25" customHeight="1">
+    <row r="551" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15874,7 +15836,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" ht="11.25" customHeight="1">
+    <row r="552" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15902,7 +15864,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" ht="11.25" customHeight="1">
+    <row r="553" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15930,7 +15892,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" ht="11.25" customHeight="1">
+    <row r="554" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15958,7 +15920,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" ht="11.25" customHeight="1">
+    <row r="555" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15986,7 +15948,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" ht="11.25" customHeight="1">
+    <row r="556" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16014,7 +15976,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" ht="11.25" customHeight="1">
+    <row r="557" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16042,7 +16004,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" ht="11.25" customHeight="1">
+    <row r="558" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16070,7 +16032,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" ht="11.25" customHeight="1">
+    <row r="559" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16098,7 +16060,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" ht="11.25" customHeight="1">
+    <row r="560" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16126,7 +16088,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" ht="11.25" customHeight="1">
+    <row r="561" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16154,7 +16116,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" ht="11.25" customHeight="1">
+    <row r="562" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16182,7 +16144,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" ht="11.25" customHeight="1">
+    <row r="563" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16210,7 +16172,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" ht="11.25" customHeight="1">
+    <row r="564" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16238,7 +16200,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" ht="11.25" customHeight="1">
+    <row r="565" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16266,7 +16228,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" ht="11.25" customHeight="1">
+    <row r="566" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16294,7 +16256,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" ht="11.25" customHeight="1">
+    <row r="567" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16322,7 +16284,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" ht="11.25" customHeight="1">
+    <row r="568" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -16350,7 +16312,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" ht="11.25" customHeight="1">
+    <row r="569" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -16378,7 +16340,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" ht="11.25" customHeight="1">
+    <row r="570" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -16406,7 +16368,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" ht="11.25" customHeight="1">
+    <row r="571" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -16434,7 +16396,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" ht="11.25" customHeight="1">
+    <row r="572" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -16462,7 +16424,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" ht="11.25" customHeight="1">
+    <row r="573" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -16490,7 +16452,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" ht="11.25" customHeight="1">
+    <row r="574" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -16518,7 +16480,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" ht="11.25" customHeight="1">
+    <row r="575" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -16546,7 +16508,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" ht="11.25" customHeight="1">
+    <row r="576" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -16574,7 +16536,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" ht="11.25" customHeight="1">
+    <row r="577" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -16602,7 +16564,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" ht="11.25" customHeight="1">
+    <row r="578" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -16630,7 +16592,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" ht="11.25" customHeight="1">
+    <row r="579" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -16658,7 +16620,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" ht="11.25" customHeight="1">
+    <row r="580" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16686,7 +16648,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" ht="11.25" customHeight="1">
+    <row r="581" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16714,7 +16676,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" ht="11.25" customHeight="1">
+    <row r="582" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16742,7 +16704,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" ht="11.25" customHeight="1">
+    <row r="583" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16770,7 +16732,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" ht="11.25" customHeight="1">
+    <row r="584" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16798,7 +16760,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" ht="11.25" customHeight="1">
+    <row r="585" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16826,7 +16788,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" ht="11.25" customHeight="1">
+    <row r="586" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16854,7 +16816,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" ht="11.25" customHeight="1">
+    <row r="587" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16882,7 +16844,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" ht="11.25" customHeight="1">
+    <row r="588" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16910,7 +16872,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" ht="11.25" customHeight="1">
+    <row r="589" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16938,7 +16900,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" ht="11.25" customHeight="1">
+    <row r="590" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16966,7 +16928,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" ht="11.25" customHeight="1">
+    <row r="591" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16994,7 +16956,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" ht="11.25" customHeight="1">
+    <row r="592" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17022,7 +16984,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" ht="11.25" customHeight="1">
+    <row r="593" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17050,7 +17012,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" ht="11.25" customHeight="1">
+    <row r="594" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17078,7 +17040,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" ht="11.25" customHeight="1">
+    <row r="595" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17106,7 +17068,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" ht="11.25" customHeight="1">
+    <row r="596" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17134,7 +17096,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" ht="11.25" customHeight="1">
+    <row r="597" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17162,7 +17124,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" ht="11.25" customHeight="1">
+    <row r="598" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17190,7 +17152,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" ht="11.25" customHeight="1">
+    <row r="599" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17218,7 +17180,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" ht="11.25" customHeight="1">
+    <row r="600" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17246,7 +17208,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" ht="11.25" customHeight="1">
+    <row r="601" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17274,7 +17236,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" ht="11.25" customHeight="1">
+    <row r="602" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17302,7 +17264,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" ht="11.25" customHeight="1">
+    <row r="603" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -17330,7 +17292,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" ht="11.25" customHeight="1">
+    <row r="604" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -17358,7 +17320,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" ht="11.25" customHeight="1">
+    <row r="605" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -17386,7 +17348,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" ht="11.25" customHeight="1">
+    <row r="606" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -17414,7 +17376,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" ht="11.25" customHeight="1">
+    <row r="607" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -17442,7 +17404,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" ht="11.25" customHeight="1">
+    <row r="608" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -17470,7 +17432,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" ht="11.25" customHeight="1">
+    <row r="609" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -17498,7 +17460,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" ht="11.25" customHeight="1">
+    <row r="610" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -17526,7 +17488,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" ht="11.25" customHeight="1">
+    <row r="611" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -17554,7 +17516,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" ht="11.25" customHeight="1">
+    <row r="612" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -17582,7 +17544,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" ht="11.25" customHeight="1">
+    <row r="613" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -17610,7 +17572,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" ht="11.25" customHeight="1">
+    <row r="614" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -17638,7 +17600,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" ht="11.25" customHeight="1">
+    <row r="615" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -17666,7 +17628,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" ht="11.25" customHeight="1">
+    <row r="616" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -17694,7 +17656,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" ht="11.25" customHeight="1">
+    <row r="617" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -17722,7 +17684,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" ht="11.25" customHeight="1">
+    <row r="618" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -17750,7 +17712,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" ht="11.25" customHeight="1">
+    <row r="619" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -17778,7 +17740,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" ht="11.25" customHeight="1">
+    <row r="620" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -17806,7 +17768,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" ht="11.25" customHeight="1">
+    <row r="621" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17834,7 +17796,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" ht="11.25" customHeight="1">
+    <row r="622" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17862,7 +17824,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" ht="11.25" customHeight="1">
+    <row r="623" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17890,7 +17852,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" ht="11.25" customHeight="1">
+    <row r="624" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17918,7 +17880,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" ht="11.25" customHeight="1">
+    <row r="625" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17946,7 +17908,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" ht="11.25" customHeight="1">
+    <row r="626" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17974,7 +17936,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" ht="11.25" customHeight="1">
+    <row r="627" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18002,7 +17964,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" ht="11.25" customHeight="1">
+    <row r="628" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18030,7 +17992,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" ht="11.25" customHeight="1">
+    <row r="629" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18058,7 +18020,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" ht="11.25" customHeight="1">
+    <row r="630" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18086,7 +18048,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" ht="11.25" customHeight="1">
+    <row r="631" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18114,7 +18076,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" ht="11.25" customHeight="1">
+    <row r="632" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18142,7 +18104,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" ht="11.25" customHeight="1">
+    <row r="633" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18170,7 +18132,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" ht="11.25" customHeight="1">
+    <row r="634" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18198,7 +18160,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" ht="11.25" customHeight="1">
+    <row r="635" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18226,7 +18188,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" ht="11.25" customHeight="1">
+    <row r="636" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18254,7 +18216,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" ht="11.25" customHeight="1">
+    <row r="637" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18282,7 +18244,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" ht="11.25" customHeight="1">
+    <row r="638" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18310,7 +18272,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" ht="11.25" customHeight="1">
+    <row r="639" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18338,7 +18300,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" ht="11.25" customHeight="1">
+    <row r="640" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -18366,7 +18328,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" ht="11.25" customHeight="1">
+    <row r="641" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -18394,7 +18356,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" ht="11.25" customHeight="1">
+    <row r="642" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -18422,7 +18384,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" ht="11.25" customHeight="1">
+    <row r="643" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -18450,7 +18412,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" ht="11.25" customHeight="1">
+    <row r="644" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -18478,7 +18440,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" ht="11.25" customHeight="1">
+    <row r="645" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -18506,7 +18468,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" ht="11.25" customHeight="1">
+    <row r="646" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -18534,7 +18496,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" ht="11.25" customHeight="1">
+    <row r="647" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -18562,7 +18524,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" ht="11.25" customHeight="1">
+    <row r="648" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -18590,7 +18552,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" ht="11.25" customHeight="1">
+    <row r="649" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -18618,7 +18580,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" ht="11.25" customHeight="1">
+    <row r="650" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -18646,7 +18608,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" ht="11.25" customHeight="1">
+    <row r="651" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -18674,7 +18636,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" ht="11.25" customHeight="1">
+    <row r="652" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -18702,7 +18664,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" ht="11.25" customHeight="1">
+    <row r="653" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -18730,7 +18692,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" ht="11.25" customHeight="1">
+    <row r="654" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -18758,7 +18720,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" ht="11.25" customHeight="1">
+    <row r="655" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -18786,7 +18748,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" ht="11.25" customHeight="1">
+    <row r="656" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -18814,7 +18776,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" ht="11.25" customHeight="1">
+    <row r="657" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -18842,7 +18804,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" ht="11.25" customHeight="1">
+    <row r="658" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -18870,7 +18832,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" ht="11.25" customHeight="1">
+    <row r="659" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18898,7 +18860,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" ht="11.25" customHeight="1">
+    <row r="660" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18926,7 +18888,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" ht="11.25" customHeight="1">
+    <row r="661" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -18954,7 +18916,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" ht="11.25" customHeight="1">
+    <row r="662" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -18982,7 +18944,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" ht="11.25" customHeight="1">
+    <row r="663" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19010,7 +18972,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" ht="11.25" customHeight="1">
+    <row r="664" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19038,7 +19000,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" ht="11.25" customHeight="1">
+    <row r="665" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19066,7 +19028,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" ht="11.25" customHeight="1">
+    <row r="666" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19094,7 +19056,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" ht="11.25" customHeight="1">
+    <row r="667" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19122,7 +19084,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" ht="11.25" customHeight="1">
+    <row r="668" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19150,7 +19112,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" ht="11.25" customHeight="1">
+    <row r="669" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19178,7 +19140,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" ht="11.25" customHeight="1">
+    <row r="670" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19206,7 +19168,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" ht="11.25" customHeight="1">
+    <row r="671" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19234,7 +19196,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" ht="11.25" customHeight="1">
+    <row r="672" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19262,7 +19224,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" ht="11.25" customHeight="1">
+    <row r="673" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19290,7 +19252,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" ht="11.25" customHeight="1">
+    <row r="674" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19318,7 +19280,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" ht="11.25" customHeight="1">
+    <row r="675" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19346,7 +19308,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" ht="11.25" customHeight="1">
+    <row r="676" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19374,7 +19336,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" ht="11.25" customHeight="1">
+    <row r="677" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -19402,7 +19364,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" ht="11.25" customHeight="1">
+    <row r="678" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -19430,7 +19392,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" ht="11.25" customHeight="1">
+    <row r="679" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -19458,7 +19420,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" ht="11.25" customHeight="1">
+    <row r="680" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -19486,7 +19448,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" ht="11.25" customHeight="1">
+    <row r="681" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -19514,7 +19476,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" ht="11.25" customHeight="1">
+    <row r="682" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -19542,7 +19504,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" ht="11.25" customHeight="1">
+    <row r="683" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -19570,7 +19532,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" ht="11.25" customHeight="1">
+    <row r="684" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -19598,7 +19560,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" ht="11.25" customHeight="1">
+    <row r="685" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -19626,7 +19588,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" ht="11.25" customHeight="1">
+    <row r="686" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -19654,7 +19616,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" ht="11.25" customHeight="1">
+    <row r="687" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -19682,7 +19644,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" ht="11.25" customHeight="1">
+    <row r="688" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -19710,7 +19672,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" ht="11.25" customHeight="1">
+    <row r="689" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -19738,7 +19700,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" ht="11.25" customHeight="1">
+    <row r="690" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -19766,7 +19728,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" ht="11.25" customHeight="1">
+    <row r="691" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -19794,7 +19756,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" ht="11.25" customHeight="1">
+    <row r="692" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -19822,7 +19784,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" ht="11.25" customHeight="1">
+    <row r="693" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -19850,7 +19812,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" ht="11.25" customHeight="1">
+    <row r="694" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -19878,7 +19840,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" ht="11.25" customHeight="1">
+    <row r="695" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -19906,7 +19868,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" ht="11.25" customHeight="1">
+    <row r="696" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -19934,7 +19896,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" ht="11.25" customHeight="1">
+    <row r="697" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -19962,7 +19924,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" ht="11.25" customHeight="1">
+    <row r="698" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -19990,7 +19952,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" ht="11.25" customHeight="1">
+    <row r="699" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20018,7 +19980,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" ht="11.25" customHeight="1">
+    <row r="700" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20046,7 +20008,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" ht="11.25" customHeight="1">
+    <row r="701" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20074,7 +20036,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" ht="11.25" customHeight="1">
+    <row r="702" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20102,7 +20064,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" ht="11.25" customHeight="1">
+    <row r="703" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20130,7 +20092,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" ht="11.25" customHeight="1">
+    <row r="704" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20158,7 +20120,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" ht="11.25" customHeight="1">
+    <row r="705" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20186,7 +20148,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" ht="11.25" customHeight="1">
+    <row r="706" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20214,7 +20176,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" ht="11.25" customHeight="1">
+    <row r="707" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20242,7 +20204,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" ht="11.25" customHeight="1">
+    <row r="708" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20270,7 +20232,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" ht="11.25" customHeight="1">
+    <row r="709" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20298,7 +20260,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" ht="11.25" customHeight="1">
+    <row r="710" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20326,7 +20288,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" ht="11.25" customHeight="1">
+    <row r="711" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20354,7 +20316,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" ht="11.25" customHeight="1">
+    <row r="712" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20382,7 +20344,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" ht="11.25" customHeight="1">
+    <row r="713" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20410,7 +20372,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" ht="11.25" customHeight="1">
+    <row r="714" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -20438,7 +20400,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" ht="11.25" customHeight="1">
+    <row r="715" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -20466,7 +20428,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" ht="11.25" customHeight="1">
+    <row r="716" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -20494,7 +20456,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" ht="11.25" customHeight="1">
+    <row r="717" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -20522,7 +20484,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" ht="11.25" customHeight="1">
+    <row r="718" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -20550,7 +20512,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" ht="11.25" customHeight="1">
+    <row r="719" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -20578,7 +20540,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" ht="11.25" customHeight="1">
+    <row r="720" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -20606,7 +20568,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" ht="11.25" customHeight="1">
+    <row r="721" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -20634,7 +20596,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" ht="11.25" customHeight="1">
+    <row r="722" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -20662,7 +20624,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" ht="11.25" customHeight="1">
+    <row r="723" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -20690,7 +20652,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" ht="11.25" customHeight="1">
+    <row r="724" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -20718,7 +20680,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" ht="11.25" customHeight="1">
+    <row r="725" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -20746,7 +20708,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" ht="11.25" customHeight="1">
+    <row r="726" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -20774,7 +20736,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" ht="11.25" customHeight="1">
+    <row r="727" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -20802,7 +20764,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" ht="11.25" customHeight="1">
+    <row r="728" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -20830,7 +20792,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" ht="11.25" customHeight="1">
+    <row r="729" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -20858,7 +20820,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" ht="11.25" customHeight="1">
+    <row r="730" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -20886,7 +20848,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" ht="11.25" customHeight="1">
+    <row r="731" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -20914,7 +20876,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" ht="11.25" customHeight="1">
+    <row r="732" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -20942,7 +20904,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" ht="11.25" customHeight="1">
+    <row r="733" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -20970,7 +20932,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" ht="11.25" customHeight="1">
+    <row r="734" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -20998,7 +20960,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" ht="11.25" customHeight="1">
+    <row r="735" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21026,7 +20988,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" ht="11.25" customHeight="1">
+    <row r="736" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21054,7 +21016,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" ht="11.25" customHeight="1">
+    <row r="737" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21082,7 +21044,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" ht="11.25" customHeight="1">
+    <row r="738" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21110,7 +21072,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" ht="11.25" customHeight="1">
+    <row r="739" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21138,7 +21100,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" ht="11.25" customHeight="1">
+    <row r="740" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21166,7 +21128,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" ht="11.25" customHeight="1">
+    <row r="741" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21194,7 +21156,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" ht="11.25" customHeight="1">
+    <row r="742" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21222,7 +21184,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" ht="11.25" customHeight="1">
+    <row r="743" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21250,7 +21212,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" ht="11.25" customHeight="1">
+    <row r="744" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21278,7 +21240,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" ht="11.25" customHeight="1">
+    <row r="745" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21306,7 +21268,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" ht="11.25" customHeight="1">
+    <row r="746" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21334,7 +21296,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" ht="11.25" customHeight="1">
+    <row r="747" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21362,7 +21324,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" ht="11.25" customHeight="1">
+    <row r="748" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21390,7 +21352,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" ht="11.25" customHeight="1">
+    <row r="749" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21418,7 +21380,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" ht="11.25" customHeight="1">
+    <row r="750" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21446,7 +21408,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" ht="11.25" customHeight="1">
+    <row r="751" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -21474,7 +21436,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" ht="11.25" customHeight="1">
+    <row r="752" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -21502,7 +21464,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" ht="11.25" customHeight="1">
+    <row r="753" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -21530,7 +21492,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" ht="11.25" customHeight="1">
+    <row r="754" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -21558,7 +21520,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" ht="11.25" customHeight="1">
+    <row r="755" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -21586,7 +21548,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" ht="11.25" customHeight="1">
+    <row r="756" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -21614,7 +21576,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" ht="11.25" customHeight="1">
+    <row r="757" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -21642,7 +21604,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" ht="11.25" customHeight="1">
+    <row r="758" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -21670,7 +21632,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" ht="11.25" customHeight="1">
+    <row r="759" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -21698,7 +21660,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" ht="11.25" customHeight="1">
+    <row r="760" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -21726,7 +21688,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" ht="11.25" customHeight="1">
+    <row r="761" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -21754,7 +21716,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" ht="11.25" customHeight="1">
+    <row r="762" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -21782,7 +21744,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" ht="11.25" customHeight="1">
+    <row r="763" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -21810,7 +21772,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" ht="11.25" customHeight="1">
+    <row r="764" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -21838,7 +21800,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" ht="11.25" customHeight="1">
+    <row r="765" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -21866,7 +21828,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" ht="11.25" customHeight="1">
+    <row r="766" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -21894,7 +21856,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" ht="11.25" customHeight="1">
+    <row r="767" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -21922,7 +21884,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" ht="11.25" customHeight="1">
+    <row r="768" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -21950,7 +21912,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" ht="11.25" customHeight="1">
+    <row r="769" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -21978,7 +21940,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" ht="11.25" customHeight="1">
+    <row r="770" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22006,7 +21968,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" ht="11.25" customHeight="1">
+    <row r="771" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22034,7 +21996,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" ht="11.25" customHeight="1">
+    <row r="772" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22062,7 +22024,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" ht="11.25" customHeight="1">
+    <row r="773" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22090,7 +22052,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" ht="11.25" customHeight="1">
+    <row r="774" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22118,7 +22080,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" ht="11.25" customHeight="1">
+    <row r="775" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22146,7 +22108,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" ht="11.25" customHeight="1">
+    <row r="776" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22174,7 +22136,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" ht="11.25" customHeight="1">
+    <row r="777" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22202,7 +22164,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" ht="11.25" customHeight="1">
+    <row r="778" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22230,7 +22192,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" ht="11.25" customHeight="1">
+    <row r="779" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22258,7 +22220,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" ht="11.25" customHeight="1">
+    <row r="780" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22286,7 +22248,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" ht="11.25" customHeight="1">
+    <row r="781" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22314,7 +22276,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" ht="11.25" customHeight="1">
+    <row r="782" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22342,7 +22304,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" ht="11.25" customHeight="1">
+    <row r="783" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22370,7 +22332,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" ht="11.25" customHeight="1">
+    <row r="784" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22398,7 +22360,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" ht="11.25" customHeight="1">
+    <row r="785" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -22426,7 +22388,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" ht="11.25" customHeight="1">
+    <row r="786" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22454,7 +22416,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" ht="11.25" customHeight="1">
+    <row r="787" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22482,7 +22444,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" ht="11.25" customHeight="1">
+    <row r="788" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -22510,7 +22472,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" ht="11.25" customHeight="1">
+    <row r="789" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -22538,7 +22500,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" ht="11.25" customHeight="1">
+    <row r="790" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -22566,7 +22528,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" ht="11.25" customHeight="1">
+    <row r="791" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -22594,7 +22556,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" ht="11.25" customHeight="1">
+    <row r="792" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -22622,7 +22584,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" ht="11.25" customHeight="1">
+    <row r="793" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -22650,7 +22612,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" ht="11.25" customHeight="1">
+    <row r="794" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -22678,7 +22640,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" ht="11.25" customHeight="1">
+    <row r="795" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -22706,7 +22668,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" ht="11.25" customHeight="1">
+    <row r="796" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -22734,7 +22696,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" ht="11.25" customHeight="1">
+    <row r="797" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -22762,7 +22724,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" ht="11.25" customHeight="1">
+    <row r="798" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -22790,7 +22752,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" ht="11.25" customHeight="1">
+    <row r="799" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -22818,7 +22780,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" ht="11.25" customHeight="1">
+    <row r="800" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -22846,7 +22808,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" ht="11.25" customHeight="1">
+    <row r="801" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -22874,7 +22836,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" ht="11.25" customHeight="1">
+    <row r="802" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -22902,7 +22864,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" ht="11.25" customHeight="1">
+    <row r="803" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -22930,7 +22892,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" ht="11.25" customHeight="1">
+    <row r="804" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -22958,7 +22920,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" ht="11.25" customHeight="1">
+    <row r="805" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -22986,7 +22948,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" ht="11.25" customHeight="1">
+    <row r="806" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23014,7 +22976,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" ht="11.25" customHeight="1">
+    <row r="807" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23042,7 +23004,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" ht="11.25" customHeight="1">
+    <row r="808" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23070,7 +23032,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" ht="11.25" customHeight="1">
+    <row r="809" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23098,7 +23060,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" ht="11.25" customHeight="1">
+    <row r="810" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23126,7 +23088,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" ht="11.25" customHeight="1">
+    <row r="811" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23154,7 +23116,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" ht="11.25" customHeight="1">
+    <row r="812" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23182,7 +23144,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" ht="11.25" customHeight="1">
+    <row r="813" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23210,7 +23172,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" ht="11.25" customHeight="1">
+    <row r="814" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23238,7 +23200,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" ht="11.25" customHeight="1">
+    <row r="815" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23266,7 +23228,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" ht="11.25" customHeight="1">
+    <row r="816" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23294,7 +23256,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" ht="11.25" customHeight="1">
+    <row r="817" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23322,7 +23284,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" ht="11.25" customHeight="1">
+    <row r="818" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23350,7 +23312,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" ht="11.25" customHeight="1">
+    <row r="819" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23378,7 +23340,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" ht="11.25" customHeight="1">
+    <row r="820" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23406,7 +23368,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" ht="11.25" customHeight="1">
+    <row r="821" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23434,7 +23396,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" ht="11.25" customHeight="1">
+    <row r="822" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -23462,7 +23424,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" ht="11.25" customHeight="1">
+    <row r="823" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23490,7 +23452,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" ht="11.25" customHeight="1">
+    <row r="824" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23518,7 +23480,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" ht="11.25" customHeight="1">
+    <row r="825" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -23546,7 +23508,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" ht="11.25" customHeight="1">
+    <row r="826" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -23574,7 +23536,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" ht="11.25" customHeight="1">
+    <row r="827" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -23602,7 +23564,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" ht="11.25" customHeight="1">
+    <row r="828" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -23630,7 +23592,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" ht="11.25" customHeight="1">
+    <row r="829" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -23658,7 +23620,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" ht="11.25" customHeight="1">
+    <row r="830" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -23686,7 +23648,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" ht="11.25" customHeight="1">
+    <row r="831" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -23714,7 +23676,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" ht="11.25" customHeight="1">
+    <row r="832" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -23742,7 +23704,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" ht="11.25" customHeight="1">
+    <row r="833" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -23770,7 +23732,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" ht="11.25" customHeight="1">
+    <row r="834" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -23798,7 +23760,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" ht="11.25" customHeight="1">
+    <row r="835" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -23826,7 +23788,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" ht="11.25" customHeight="1">
+    <row r="836" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -23854,7 +23816,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" ht="11.25" customHeight="1">
+    <row r="837" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -23882,7 +23844,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" ht="11.25" customHeight="1">
+    <row r="838" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -23910,7 +23872,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" ht="11.25" customHeight="1">
+    <row r="839" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -23938,7 +23900,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" ht="11.25" customHeight="1">
+    <row r="840" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -23966,7 +23928,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" ht="11.25" customHeight="1">
+    <row r="841" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -23994,7 +23956,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" ht="11.25" customHeight="1">
+    <row r="842" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24022,7 +23984,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" ht="11.25" customHeight="1">
+    <row r="843" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24050,7 +24012,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" ht="11.25" customHeight="1">
+    <row r="844" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24078,7 +24040,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" ht="11.25" customHeight="1">
+    <row r="845" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24106,7 +24068,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" ht="11.25" customHeight="1">
+    <row r="846" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24134,7 +24096,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" ht="11.25" customHeight="1">
+    <row r="847" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24162,7 +24124,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" ht="11.25" customHeight="1">
+    <row r="848" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24190,7 +24152,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" ht="11.25" customHeight="1">
+    <row r="849" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24218,7 +24180,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" ht="11.25" customHeight="1">
+    <row r="850" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24246,7 +24208,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" ht="11.25" customHeight="1">
+    <row r="851" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24274,7 +24236,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" ht="11.25" customHeight="1">
+    <row r="852" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24302,7 +24264,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" ht="11.25" customHeight="1">
+    <row r="853" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24330,7 +24292,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" ht="11.25" customHeight="1">
+    <row r="854" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24358,7 +24320,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" ht="11.25" customHeight="1">
+    <row r="855" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24386,7 +24348,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" ht="11.25" customHeight="1">
+    <row r="856" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24414,7 +24376,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" ht="11.25" customHeight="1">
+    <row r="857" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24442,7 +24404,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" ht="11.25" customHeight="1">
+    <row r="858" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24470,7 +24432,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" ht="11.25" customHeight="1">
+    <row r="859" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -24498,7 +24460,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" ht="11.25" customHeight="1">
+    <row r="860" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -24526,7 +24488,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" ht="11.25" customHeight="1">
+    <row r="861" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -24554,7 +24516,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" ht="11.25" customHeight="1">
+    <row r="862" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -24582,7 +24544,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" ht="11.25" customHeight="1">
+    <row r="863" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -24610,7 +24572,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" ht="11.25" customHeight="1">
+    <row r="864" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -24638,7 +24600,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" ht="11.25" customHeight="1">
+    <row r="865" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -24666,7 +24628,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" ht="11.25" customHeight="1">
+    <row r="866" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -24694,7 +24656,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" ht="11.25" customHeight="1">
+    <row r="867" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -24722,7 +24684,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" ht="11.25" customHeight="1">
+    <row r="868" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -24750,7 +24712,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" ht="11.25" customHeight="1">
+    <row r="869" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -24778,7 +24740,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" ht="11.25" customHeight="1">
+    <row r="870" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -24806,7 +24768,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" ht="11.25" customHeight="1">
+    <row r="871" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -24834,7 +24796,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" ht="11.25" customHeight="1">
+    <row r="872" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -24862,7 +24824,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" ht="11.25" customHeight="1">
+    <row r="873" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -24890,7 +24852,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" ht="11.25" customHeight="1">
+    <row r="874" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -24918,7 +24880,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" ht="11.25" customHeight="1">
+    <row r="875" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -24946,7 +24908,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" ht="11.25" customHeight="1">
+    <row r="876" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -24974,7 +24936,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" ht="11.25" customHeight="1">
+    <row r="877" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -25002,7 +24964,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" ht="11.25" customHeight="1">
+    <row r="878" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -25030,7 +24992,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" ht="11.25" customHeight="1">
+    <row r="879" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -25058,7 +25020,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" ht="11.25" customHeight="1">
+    <row r="880" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -25086,7 +25048,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" ht="11.25" customHeight="1">
+    <row r="881" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -25114,7 +25076,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" ht="11.25" customHeight="1">
+    <row r="882" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -25142,7 +25104,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" ht="11.25" customHeight="1">
+    <row r="883" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -25170,7 +25132,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" ht="11.25" customHeight="1">
+    <row r="884" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -25198,7 +25160,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" ht="11.25" customHeight="1">
+    <row r="885" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -25226,7 +25188,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" ht="11.25" customHeight="1">
+    <row r="886" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -25254,7 +25216,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" ht="11.25" customHeight="1">
+    <row r="887" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -25282,7 +25244,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" ht="11.25" customHeight="1">
+    <row r="888" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -25310,7 +25272,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" ht="11.25" customHeight="1">
+    <row r="889" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -25338,7 +25300,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" ht="11.25" customHeight="1">
+    <row r="890" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -25366,7 +25328,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" ht="11.25" customHeight="1">
+    <row r="891" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -25394,7 +25356,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" ht="11.25" customHeight="1">
+    <row r="892" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -25422,7 +25384,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" ht="11.25" customHeight="1">
+    <row r="893" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -25450,7 +25412,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" ht="11.25" customHeight="1">
+    <row r="894" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -25478,7 +25440,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" ht="11.25" customHeight="1">
+    <row r="895" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -25506,7 +25468,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" ht="11.25" customHeight="1">
+    <row r="896" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -25534,7 +25496,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" ht="11.25" customHeight="1">
+    <row r="897" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -25562,7 +25524,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" ht="11.25" customHeight="1">
+    <row r="898" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -25590,7 +25552,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" ht="11.25" customHeight="1">
+    <row r="899" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -25618,7 +25580,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" ht="11.25" customHeight="1">
+    <row r="900" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -25646,7 +25608,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" ht="11.25" customHeight="1">
+    <row r="901" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -25674,7 +25636,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" ht="11.25" customHeight="1">
+    <row r="902" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -25702,7 +25664,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" ht="11.25" customHeight="1">
+    <row r="903" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -25730,7 +25692,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" ht="11.25" customHeight="1">
+    <row r="904" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -25758,7 +25720,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" ht="11.25" customHeight="1">
+    <row r="905" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -25786,7 +25748,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" ht="11.25" customHeight="1">
+    <row r="906" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -25814,7 +25776,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" ht="11.25" customHeight="1">
+    <row r="907" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -25842,7 +25804,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" ht="11.25" customHeight="1">
+    <row r="908" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -25870,7 +25832,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" ht="11.25" customHeight="1">
+    <row r="909" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -25898,7 +25860,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" ht="11.25" customHeight="1">
+    <row r="910" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -25926,7 +25888,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" ht="11.25" customHeight="1">
+    <row r="911" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -25954,7 +25916,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" ht="11.25" customHeight="1">
+    <row r="912" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -25982,7 +25944,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" ht="11.25" customHeight="1">
+    <row r="913" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -26010,7 +25972,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" ht="11.25" customHeight="1">
+    <row r="914" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -26038,7 +26000,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" ht="11.25" customHeight="1">
+    <row r="915" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -26066,7 +26028,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" ht="11.25" customHeight="1">
+    <row r="916" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -26094,7 +26056,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" ht="11.25" customHeight="1">
+    <row r="917" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -26122,7 +26084,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" ht="11.25" customHeight="1">
+    <row r="918" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -26150,7 +26112,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" ht="11.25" customHeight="1">
+    <row r="919" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -26178,7 +26140,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" ht="11.25" customHeight="1">
+    <row r="920" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -26206,7 +26168,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" ht="11.25" customHeight="1">
+    <row r="921" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -26234,7 +26196,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" ht="11.25" customHeight="1">
+    <row r="922" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -26262,7 +26224,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" ht="11.25" customHeight="1">
+    <row r="923" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -26290,7 +26252,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" ht="11.25" customHeight="1">
+    <row r="924" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -26318,7 +26280,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" ht="11.25" customHeight="1">
+    <row r="925" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -26346,7 +26308,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" ht="11.25" customHeight="1">
+    <row r="926" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -26374,7 +26336,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" ht="11.25" customHeight="1">
+    <row r="927" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -26402,7 +26364,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" ht="11.25" customHeight="1">
+    <row r="928" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -26430,7 +26392,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" ht="11.25" customHeight="1">
+    <row r="929" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -26458,7 +26420,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" ht="11.25" customHeight="1">
+    <row r="930" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -26486,7 +26448,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" ht="11.25" customHeight="1">
+    <row r="931" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -26514,7 +26476,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" ht="11.25" customHeight="1">
+    <row r="932" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -26542,7 +26504,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" ht="11.25" customHeight="1">
+    <row r="933" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -26570,7 +26532,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" ht="11.25" customHeight="1">
+    <row r="934" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -26598,7 +26560,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" ht="11.25" customHeight="1">
+    <row r="935" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -26626,7 +26588,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" ht="11.25" customHeight="1">
+    <row r="936" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -26654,7 +26616,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" ht="11.25" customHeight="1">
+    <row r="937" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -26682,7 +26644,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" ht="11.25" customHeight="1">
+    <row r="938" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -26710,7 +26672,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" ht="11.25" customHeight="1">
+    <row r="939" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -26738,7 +26700,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" ht="11.25" customHeight="1">
+    <row r="940" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -26766,7 +26728,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" ht="11.25" customHeight="1">
+    <row r="941" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -26794,7 +26756,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" ht="11.25" customHeight="1">
+    <row r="942" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -26822,7 +26784,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" ht="11.25" customHeight="1">
+    <row r="943" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -26850,7 +26812,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" ht="11.25" customHeight="1">
+    <row r="944" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -26878,7 +26840,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" ht="11.25" customHeight="1">
+    <row r="945" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -26906,7 +26868,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" ht="11.25" customHeight="1">
+    <row r="946" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -26934,7 +26896,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" ht="11.25" customHeight="1">
+    <row r="947" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -26962,7 +26924,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" ht="11.25" customHeight="1">
+    <row r="948" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -26990,7 +26952,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" ht="11.25" customHeight="1">
+    <row r="949" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -27018,7 +26980,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" ht="11.25" customHeight="1">
+    <row r="950" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -27046,7 +27008,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" ht="11.25" customHeight="1">
+    <row r="951" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -27074,7 +27036,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" ht="11.25" customHeight="1">
+    <row r="952" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -27102,7 +27064,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" ht="11.25" customHeight="1">
+    <row r="953" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -27130,7 +27092,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" ht="11.25" customHeight="1">
+    <row r="954" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -27158,7 +27120,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" ht="11.25" customHeight="1">
+    <row r="955" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -27186,7 +27148,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" ht="11.25" customHeight="1">
+    <row r="956" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -27214,7 +27176,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" ht="11.25" customHeight="1">
+    <row r="957" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -27242,7 +27204,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" ht="11.25" customHeight="1">
+    <row r="958" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -27270,7 +27232,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" ht="11.25" customHeight="1">
+    <row r="959" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -27298,7 +27260,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" ht="11.25" customHeight="1">
+    <row r="960" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -27326,7 +27288,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" ht="11.25" customHeight="1">
+    <row r="961" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -27354,7 +27316,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" ht="11.25" customHeight="1">
+    <row r="962" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -27382,7 +27344,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" ht="11.25" customHeight="1">
+    <row r="963" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -27410,7 +27372,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" ht="11.25" customHeight="1">
+    <row r="964" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -27438,7 +27400,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" ht="11.25" customHeight="1">
+    <row r="965" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -27466,7 +27428,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" ht="11.25" customHeight="1">
+    <row r="966" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -27494,7 +27456,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" ht="11.25" customHeight="1">
+    <row r="967" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -27522,7 +27484,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" ht="11.25" customHeight="1">
+    <row r="968" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -27550,7 +27512,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" ht="11.25" customHeight="1">
+    <row r="969" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -27578,7 +27540,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" ht="11.25" customHeight="1">
+    <row r="970" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -27606,7 +27568,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" ht="11.25" customHeight="1">
+    <row r="971" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -27634,7 +27596,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" ht="11.25" customHeight="1">
+    <row r="972" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -27662,7 +27624,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" ht="11.25" customHeight="1">
+    <row r="973" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -27690,7 +27652,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" ht="11.25" customHeight="1">
+    <row r="974" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -27718,7 +27680,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" ht="11.25" customHeight="1">
+    <row r="975" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -27746,7 +27708,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" ht="11.25" customHeight="1">
+    <row r="976" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -27774,7 +27736,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" ht="11.25" customHeight="1">
+    <row r="977" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -27802,7 +27764,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" ht="11.25" customHeight="1">
+    <row r="978" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -27830,7 +27792,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" ht="11.25" customHeight="1">
+    <row r="979" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -27858,7 +27820,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" ht="11.25" customHeight="1">
+    <row r="980" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -27886,7 +27848,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" ht="11.25" customHeight="1">
+    <row r="981" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -27914,7 +27876,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" ht="11.25" customHeight="1">
+    <row r="982" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -27942,7 +27904,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" ht="11.25" customHeight="1">
+    <row r="983" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -27970,7 +27932,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" ht="11.25" customHeight="1">
+    <row r="984" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -27998,7 +27960,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" ht="11.25" customHeight="1">
+    <row r="985" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -28026,7 +27988,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" ht="11.25" customHeight="1">
+    <row r="986" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -28054,7 +28016,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" ht="11.25" customHeight="1">
+    <row r="987" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -28082,7 +28044,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" ht="11.25" customHeight="1">
+    <row r="988" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -28110,7 +28072,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" ht="11.25" customHeight="1">
+    <row r="989" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -28138,7 +28100,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" ht="11.25" customHeight="1">
+    <row r="990" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -28166,7 +28128,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991" ht="11.25" customHeight="1">
+    <row r="991" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -28194,7 +28156,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992" ht="11.25" customHeight="1">
+    <row r="992" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -28222,7 +28184,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993" ht="11.25" customHeight="1">
+    <row r="993" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -28250,7 +28212,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" ht="11.25" customHeight="1">
+    <row r="994" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -28278,7 +28240,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995" ht="11.25" customHeight="1">
+    <row r="995" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -28306,7 +28268,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" ht="11.25" customHeight="1">
+    <row r="996" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -28334,7 +28296,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" ht="11.25" customHeight="1">
+    <row r="997" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -28362,7 +28324,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" ht="11.25" customHeight="1">
+    <row r="998" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -28390,7 +28352,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" ht="11.25" customHeight="1">
+    <row r="999" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -28418,7 +28380,7 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" ht="11.25" customHeight="1">
+    <row r="1000" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -28447,9 +28409,12 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>